--- a/data/pca/factorExposure/factorExposure_2017-11-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02520901497679126</v>
+        <v>0.01428624998908856</v>
       </c>
       <c r="C2">
-        <v>0.0006872711630333749</v>
+        <v>-0.03804789615703546</v>
       </c>
       <c r="D2">
-        <v>0.003767193668615236</v>
+        <v>-0.02830957196869257</v>
       </c>
       <c r="E2">
-        <v>0.01840982319785065</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02778695777129681</v>
+      </c>
+      <c r="F2">
+        <v>0.03394094373567428</v>
+      </c>
+      <c r="G2">
+        <v>-0.01293365336300895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01150454617348358</v>
+        <v>0.05487662526372691</v>
       </c>
       <c r="C3">
-        <v>0.04677277306079107</v>
+        <v>-0.07847270690400168</v>
       </c>
       <c r="D3">
-        <v>-0.008302090888409353</v>
+        <v>-0.01450986177143835</v>
       </c>
       <c r="E3">
-        <v>-0.04555702436129107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08266190143139218</v>
+      </c>
+      <c r="F3">
+        <v>0.06164904943837424</v>
+      </c>
+      <c r="G3">
+        <v>-0.07604253957428188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02360960928011725</v>
+        <v>0.05544510419846747</v>
       </c>
       <c r="C4">
-        <v>0.0329679367767349</v>
+        <v>-0.06344050554914829</v>
       </c>
       <c r="D4">
-        <v>0.03468420817942971</v>
+        <v>-0.02210217181968003</v>
       </c>
       <c r="E4">
-        <v>0.03729476202327691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0003679297323803147</v>
+      </c>
+      <c r="F4">
+        <v>0.01712578130091273</v>
+      </c>
+      <c r="G4">
+        <v>-0.04008515346926646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01567133733571109</v>
+        <v>0.0319204859623228</v>
       </c>
       <c r="C6">
-        <v>0.05169156680996602</v>
+        <v>-0.05430211693412765</v>
       </c>
       <c r="D6">
-        <v>0.03001796021938531</v>
+        <v>-0.01625977474649271</v>
       </c>
       <c r="E6">
-        <v>0.05558733538738827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.005981400890930196</v>
+      </c>
+      <c r="F6">
+        <v>0.02085699361954426</v>
+      </c>
+      <c r="G6">
+        <v>-0.0236096044959735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01236879811780922</v>
+        <v>0.02000114655166974</v>
       </c>
       <c r="C7">
-        <v>0.0207478643135316</v>
+        <v>-0.03755843221979444</v>
       </c>
       <c r="D7">
-        <v>0.06490028411435454</v>
+        <v>-0.01241282431179121</v>
       </c>
       <c r="E7">
-        <v>-0.02727111643364862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01317779417359827</v>
+      </c>
+      <c r="F7">
+        <v>0.01198937200161962</v>
+      </c>
+      <c r="G7">
+        <v>-0.07621418036966772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.00170183924199942</v>
+        <v>-0.003170452951313572</v>
       </c>
       <c r="C8">
-        <v>-0.01865423909976317</v>
+        <v>-0.01396756569896852</v>
       </c>
       <c r="D8">
-        <v>0.01735077334237747</v>
+        <v>-0.003800113856724266</v>
       </c>
       <c r="E8">
-        <v>0.01758281319374433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01682543198901781</v>
+      </c>
+      <c r="F8">
+        <v>0.02356611766238614</v>
+      </c>
+      <c r="G8">
+        <v>-0.02576829174109451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01462491900565957</v>
+        <v>0.02802713756231519</v>
       </c>
       <c r="C9">
-        <v>0.02338733347066952</v>
+        <v>-0.04238069584238199</v>
       </c>
       <c r="D9">
-        <v>0.01948567911524408</v>
+        <v>-0.0153299242272335</v>
       </c>
       <c r="E9">
-        <v>0.01860082143310753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.003675052378852777</v>
+      </c>
+      <c r="F9">
+        <v>0.02015289258656471</v>
+      </c>
+      <c r="G9">
+        <v>-0.03163293959616157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01147886145265348</v>
+        <v>0.08603877074578192</v>
       </c>
       <c r="C10">
-        <v>0.08084191372963791</v>
+        <v>0.1866375769021764</v>
       </c>
       <c r="D10">
-        <v>-0.06776511404572556</v>
+        <v>0.01875875518401419</v>
       </c>
       <c r="E10">
-        <v>-0.144676817298597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0207265950998428</v>
+      </c>
+      <c r="F10">
+        <v>-0.01398506611693557</v>
+      </c>
+      <c r="G10">
+        <v>-0.03866379318840918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.000167105792571033</v>
+        <v>0.03639199540203178</v>
       </c>
       <c r="C11">
-        <v>0.01800730079307069</v>
+        <v>-0.05237711154269878</v>
       </c>
       <c r="D11">
-        <v>0.008082743445715058</v>
+        <v>-0.001195837021597428</v>
       </c>
       <c r="E11">
-        <v>0.03298649150200831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.00239366480887398</v>
+      </c>
+      <c r="F11">
+        <v>0.02536064490887938</v>
+      </c>
+      <c r="G11">
+        <v>-0.01313354667742664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005547331574068792</v>
+        <v>0.0335825315718016</v>
       </c>
       <c r="C12">
-        <v>0.02767560051404682</v>
+        <v>-0.04410685020807104</v>
       </c>
       <c r="D12">
-        <v>0.01586398730348629</v>
+        <v>-0.005334338045817336</v>
       </c>
       <c r="E12">
-        <v>0.03373892683920098</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.009361833267981023</v>
+      </c>
+      <c r="F12">
+        <v>0.007941668874956873</v>
+      </c>
+      <c r="G12">
+        <v>-0.01744739534073237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02215237211786509</v>
+        <v>0.01066734597445826</v>
       </c>
       <c r="C13">
-        <v>0.00846680928527848</v>
+        <v>-0.03351913627792418</v>
       </c>
       <c r="D13">
-        <v>0.0007871072808033019</v>
+        <v>-0.02472145892864262</v>
       </c>
       <c r="E13">
-        <v>0.008555325771977196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02218953596486742</v>
+      </c>
+      <c r="F13">
+        <v>0.02592890669242008</v>
+      </c>
+      <c r="G13">
+        <v>-0.02804880170553499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00802112065741935</v>
+        <v>0.006670567077355643</v>
       </c>
       <c r="C14">
-        <v>0.01106428797092381</v>
+        <v>-0.02511046700348241</v>
       </c>
       <c r="D14">
-        <v>0.0170733448627713</v>
+        <v>-0.008499337819414173</v>
       </c>
       <c r="E14">
-        <v>0.0008943717602403659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004847401318465757</v>
+      </c>
+      <c r="F14">
+        <v>0.004770577642244929</v>
+      </c>
+      <c r="G14">
+        <v>-0.0370056261776805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.00077694065812355</v>
+        <v>0.03304279278760244</v>
       </c>
       <c r="C16">
-        <v>0.02351662532420212</v>
+        <v>-0.0428914974676757</v>
       </c>
       <c r="D16">
-        <v>0.01712315269550162</v>
+        <v>-0.0007851819526196599</v>
       </c>
       <c r="E16">
-        <v>0.03652038920319748</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0003129267491036627</v>
+      </c>
+      <c r="F16">
+        <v>0.01124572937078746</v>
+      </c>
+      <c r="G16">
+        <v>-0.01668723380258353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01275989294489154</v>
+        <v>0.03054750278555995</v>
       </c>
       <c r="C19">
-        <v>0.01650485628679205</v>
+        <v>-0.05477346517818837</v>
       </c>
       <c r="D19">
-        <v>0.01541398393212276</v>
+        <v>-0.01534265888216953</v>
       </c>
       <c r="E19">
-        <v>0.03086899298695735</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04055201831314627</v>
+      </c>
+      <c r="F19">
+        <v>0.03983062390580359</v>
+      </c>
+      <c r="G19">
+        <v>-0.03567342869036742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.009093772257446273</v>
+        <v>0.01078766482209754</v>
       </c>
       <c r="C20">
-        <v>0.001686069797906554</v>
+        <v>-0.03485114580710481</v>
       </c>
       <c r="D20">
-        <v>0.004449853337102407</v>
+        <v>-0.0130331310476205</v>
       </c>
       <c r="E20">
-        <v>-0.001019246840195603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02027980158367634</v>
+      </c>
+      <c r="F20">
+        <v>0.007911088686886574</v>
+      </c>
+      <c r="G20">
+        <v>-0.02853256265957151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0160906798043597</v>
+        <v>0.0122476660525039</v>
       </c>
       <c r="C21">
-        <v>0.02801936841168187</v>
+        <v>-0.03348539313653911</v>
       </c>
       <c r="D21">
-        <v>0.0229945454247772</v>
+        <v>-0.01602811543469076</v>
       </c>
       <c r="E21">
-        <v>-0.0001632181178309696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0280132586261127</v>
+      </c>
+      <c r="F21">
+        <v>0.02208693229356225</v>
+      </c>
+      <c r="G21">
+        <v>-0.05063608511412255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004161362932009045</v>
+        <v>0.02717258985324601</v>
       </c>
       <c r="C24">
-        <v>0.021506388893867</v>
+        <v>-0.04561553701094837</v>
       </c>
       <c r="D24">
-        <v>0.01351441263620367</v>
+        <v>-0.006232287774855855</v>
       </c>
       <c r="E24">
-        <v>0.0316259243244944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.006002570703150601</v>
+      </c>
+      <c r="F24">
+        <v>0.02129057173839672</v>
+      </c>
+      <c r="G24">
+        <v>-0.01603941923711852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01148156357694882</v>
+        <v>0.04416422383525426</v>
       </c>
       <c r="C25">
-        <v>0.03315597038695055</v>
+        <v>-0.05191423700790229</v>
       </c>
       <c r="D25">
-        <v>0.01297820469840036</v>
+        <v>-0.01002107400638353</v>
       </c>
       <c r="E25">
-        <v>0.03344260326596084</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01283442980288046</v>
+      </c>
+      <c r="F25">
+        <v>0.01555191973600542</v>
+      </c>
+      <c r="G25">
+        <v>-0.02285126708448933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.0236624065084743</v>
+        <v>0.007711133918141638</v>
       </c>
       <c r="C26">
-        <v>-0.001090023776036546</v>
+        <v>-0.008130355224505153</v>
       </c>
       <c r="D26">
-        <v>0.006672410237671377</v>
+        <v>-0.02377715195664675</v>
       </c>
       <c r="E26">
-        <v>-0.007012389923670091</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.008973782166313499</v>
+      </c>
+      <c r="F26">
+        <v>0.007585655979349953</v>
+      </c>
+      <c r="G26">
+        <v>-0.02669755174051798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0253056901507703</v>
+        <v>0.10824107960196</v>
       </c>
       <c r="C28">
-        <v>0.1221447130199735</v>
+        <v>0.2294747292413111</v>
       </c>
       <c r="D28">
-        <v>-0.1032426481048073</v>
+        <v>0.01007710483974975</v>
       </c>
       <c r="E28">
-        <v>-0.2202284470270762</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.009089939915120793</v>
+      </c>
+      <c r="F28">
+        <v>-0.006304680001141918</v>
+      </c>
+      <c r="G28">
+        <v>-0.05412814076053513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008115961987162548</v>
+        <v>0.01154933590163349</v>
       </c>
       <c r="C29">
-        <v>0.01361733148373809</v>
+        <v>-0.01863489733961057</v>
       </c>
       <c r="D29">
-        <v>0.01201828925159401</v>
+        <v>-0.007295866785683695</v>
       </c>
       <c r="E29">
-        <v>0.0002961607197880276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.002193114947923077</v>
+      </c>
+      <c r="F29">
+        <v>-0.003909370351500855</v>
+      </c>
+      <c r="G29">
+        <v>-0.03162195157625221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02568446739743359</v>
+        <v>0.04025925940979459</v>
       </c>
       <c r="C30">
-        <v>0.03201863951547778</v>
+        <v>-0.06969818831826535</v>
       </c>
       <c r="D30">
-        <v>-0.02326549519917957</v>
+        <v>-0.02682498833883789</v>
       </c>
       <c r="E30">
-        <v>0.08020820806283044</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02050735445738665</v>
+      </c>
+      <c r="F30">
+        <v>0.04733496154367284</v>
+      </c>
+      <c r="G30">
+        <v>0.005668537908927893</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.005721082851611587</v>
+        <v>0.04276166153177986</v>
       </c>
       <c r="C31">
-        <v>0.04545941837513621</v>
+        <v>-0.03048767380320234</v>
       </c>
       <c r="D31">
-        <v>0.01881823850106024</v>
+        <v>-0.003099722195287015</v>
       </c>
       <c r="E31">
-        <v>0.01326686265290287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01165522123658836</v>
+      </c>
+      <c r="F31">
+        <v>-0.03404481229228489</v>
+      </c>
+      <c r="G31">
+        <v>-0.02731655200667715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00692672055333817</v>
+        <v>0.003132686527791102</v>
       </c>
       <c r="C32">
-        <v>-0.004028967841390399</v>
+        <v>-0.03421370022307976</v>
       </c>
       <c r="D32">
-        <v>0.03338776645030201</v>
+        <v>0.004609346344445526</v>
       </c>
       <c r="E32">
-        <v>0.01022649070868803</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01377164972031083</v>
+      </c>
+      <c r="F32">
+        <v>0.07794463516173163</v>
+      </c>
+      <c r="G32">
+        <v>-0.05143082978169744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01189441337763161</v>
+        <v>0.02980791145392775</v>
       </c>
       <c r="C33">
-        <v>0.02709287169287111</v>
+        <v>-0.04956378816783177</v>
       </c>
       <c r="D33">
-        <v>-0.009127799067048048</v>
+        <v>-0.01385931683102728</v>
       </c>
       <c r="E33">
-        <v>0.03256672206784297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01868900687939658</v>
+      </c>
+      <c r="F33">
+        <v>0.0275748585923807</v>
+      </c>
+      <c r="G33">
+        <v>-0.02276505768898001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.006796028472985891</v>
+        <v>0.04644396532064833</v>
       </c>
       <c r="C34">
-        <v>0.02862801440221262</v>
+        <v>-0.05330634439467487</v>
       </c>
       <c r="D34">
-        <v>0.0243468959796752</v>
+        <v>0.006021274557604512</v>
       </c>
       <c r="E34">
-        <v>0.03294618479797127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01218078428212767</v>
+      </c>
+      <c r="F34">
+        <v>0.02351104966079431</v>
+      </c>
+      <c r="G34">
+        <v>-0.02690410050463925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01184751291266937</v>
+        <v>0.01132869413892005</v>
       </c>
       <c r="C36">
-        <v>0.01339908598246329</v>
+        <v>-0.005927951729968901</v>
       </c>
       <c r="D36">
-        <v>0.002728711009138997</v>
+        <v>-0.01102696690448817</v>
       </c>
       <c r="E36">
-        <v>-0.00353704535619593</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001158857534295832</v>
+      </c>
+      <c r="F36">
+        <v>0.0004088116833895252</v>
+      </c>
+      <c r="G36">
+        <v>-0.01869672921667359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.007238158250151822</v>
+        <v>0.03498340158922545</v>
       </c>
       <c r="C38">
-        <v>0.02782814042445098</v>
+        <v>-0.02351180277724042</v>
       </c>
       <c r="D38">
-        <v>0.004650929431366538</v>
+        <v>0.008382421963211324</v>
       </c>
       <c r="E38">
-        <v>0.01671995449133134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.00263383474899427</v>
+      </c>
+      <c r="F38">
+        <v>0.002331833793301837</v>
+      </c>
+      <c r="G38">
+        <v>-0.02833699592248842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004675665797460411</v>
+        <v>0.03264767078828262</v>
       </c>
       <c r="C39">
-        <v>0.01520155912396313</v>
+        <v>-0.08234135451391984</v>
       </c>
       <c r="D39">
-        <v>0.03000193596578624</v>
+        <v>-0.01152888416082041</v>
       </c>
       <c r="E39">
-        <v>0.05852148011668504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01015671367464384</v>
+      </c>
+      <c r="F39">
+        <v>0.04096877265606003</v>
+      </c>
+      <c r="G39">
+        <v>-0.01799631715422313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01265655985148729</v>
+        <v>0.01970177246003208</v>
       </c>
       <c r="C40">
-        <v>0.02299086245424032</v>
+        <v>-0.03050105287469243</v>
       </c>
       <c r="D40">
-        <v>0.011471152040553</v>
+        <v>-0.01286053518780666</v>
       </c>
       <c r="E40">
-        <v>0.03723427225161013</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01574258319865882</v>
+      </c>
+      <c r="F40">
+        <v>0.02390697173700079</v>
+      </c>
+      <c r="G40">
+        <v>-0.01966467188091975</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.004727042489142692</v>
+        <v>0.01272195932185732</v>
       </c>
       <c r="C41">
-        <v>0.01518470510304946</v>
+        <v>0.002369833581809541</v>
       </c>
       <c r="D41">
-        <v>-0.004106480386250055</v>
+        <v>-0.003336109961839239</v>
       </c>
       <c r="E41">
-        <v>-0.007824032038935256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002980064631455487</v>
+      </c>
+      <c r="F41">
+        <v>0.00141036133981027</v>
+      </c>
+      <c r="G41">
+        <v>-0.01273178453953948</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08744185895736367</v>
+        <v>0.03520065071502901</v>
       </c>
       <c r="C42">
-        <v>0.1231006479343417</v>
+        <v>-0.05474176522197202</v>
       </c>
       <c r="D42">
-        <v>-0.05552089784989982</v>
+        <v>-0.1020929326363499</v>
       </c>
       <c r="E42">
-        <v>0.161360243352663</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.06115250689186248</v>
+      </c>
+      <c r="F42">
+        <v>-0.1142271999709627</v>
+      </c>
+      <c r="G42">
+        <v>0.2008875152600771</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007904461674465421</v>
+        <v>0.02874229088667767</v>
       </c>
       <c r="C43">
-        <v>0.01199962853195765</v>
+        <v>-0.006856444952866204</v>
       </c>
       <c r="D43">
-        <v>-0.005344510372934203</v>
+        <v>-0.003440587733558364</v>
       </c>
       <c r="E43">
-        <v>-0.007950698563744659</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0004688085625559762</v>
+      </c>
+      <c r="F43">
+        <v>0.001540591427075782</v>
+      </c>
+      <c r="G43">
+        <v>-0.0162262771245017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003541154319366882</v>
+        <v>0.0164440405793708</v>
       </c>
       <c r="C44">
-        <v>-0.00103821920060577</v>
+        <v>-0.0468154165644938</v>
       </c>
       <c r="D44">
-        <v>0.01535022139078537</v>
+        <v>-0.006541614503467633</v>
       </c>
       <c r="E44">
-        <v>0.00582615832579208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01910091544653024</v>
+      </c>
+      <c r="F44">
+        <v>0.02818958042830935</v>
+      </c>
+      <c r="G44">
+        <v>-0.03448626931256316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01068334047666713</v>
+        <v>0.002109462519955468</v>
       </c>
       <c r="C46">
-        <v>0.007087050206189091</v>
+        <v>-0.01692341958773804</v>
       </c>
       <c r="D46">
-        <v>0.01049971769645596</v>
+        <v>-0.01160679905651991</v>
       </c>
       <c r="E46">
-        <v>0.01718839021501223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.003177113575562122</v>
+      </c>
+      <c r="F46">
+        <v>-0.006920532934908835</v>
+      </c>
+      <c r="G46">
+        <v>-0.0231126741197715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.001425098398582148</v>
+        <v>0.0753492791158013</v>
       </c>
       <c r="C47">
-        <v>0.07162925188249331</v>
+        <v>-0.06211187243197074</v>
       </c>
       <c r="D47">
-        <v>0.01154226655145309</v>
+        <v>0.005375309014606756</v>
       </c>
       <c r="E47">
-        <v>0.0326043351993749</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01468116377487246</v>
+      </c>
+      <c r="F47">
+        <v>-0.06050035682361541</v>
+      </c>
+      <c r="G47">
+        <v>-0.02215704845422181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002279465130580641</v>
+        <v>0.01903942422210012</v>
       </c>
       <c r="C48">
-        <v>0.02502088905841025</v>
+        <v>-0.009945434167436472</v>
       </c>
       <c r="D48">
-        <v>0.004034334121086888</v>
+        <v>-0.000866471021272038</v>
       </c>
       <c r="E48">
-        <v>0.0001662010253709132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.00291778095295849</v>
+      </c>
+      <c r="F48">
+        <v>-0.01284434677232676</v>
+      </c>
+      <c r="G48">
+        <v>-0.02534397571579412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.00301248909837984</v>
+        <v>0.08029719699612207</v>
       </c>
       <c r="C50">
-        <v>0.06516153566343422</v>
+        <v>-0.06365764438870028</v>
       </c>
       <c r="D50">
-        <v>0.03716412709897436</v>
+        <v>0.004199111847688715</v>
       </c>
       <c r="E50">
-        <v>0.02630300002999106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01378448575594605</v>
+      </c>
+      <c r="F50">
+        <v>-0.0546978638456817</v>
+      </c>
+      <c r="G50">
+        <v>-0.04301195433942332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.00729132052059714</v>
+        <v>0.01355042229225477</v>
       </c>
       <c r="C51">
-        <v>-0.0002350731828276662</v>
+        <v>-0.02627995506067271</v>
       </c>
       <c r="D51">
-        <v>0.005003886008814</v>
+        <v>-0.008736785116399946</v>
       </c>
       <c r="E51">
-        <v>-0.02456078447734665</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.006044769802808972</v>
+      </c>
+      <c r="F51">
+        <v>0.0336642152760848</v>
+      </c>
+      <c r="G51">
+        <v>-0.04536203795818331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.003102260787679022</v>
+        <v>0.09681183484066468</v>
       </c>
       <c r="C53">
-        <v>0.1019285234716824</v>
+        <v>-0.07452663685047975</v>
       </c>
       <c r="D53">
-        <v>0.03901497073992834</v>
+        <v>0.006162417843208774</v>
       </c>
       <c r="E53">
-        <v>0.06526569243899284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04060855770200258</v>
+      </c>
+      <c r="F53">
+        <v>-0.06466808108780167</v>
+      </c>
+      <c r="G53">
+        <v>-0.02513515574542257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.00119286917891081</v>
+        <v>0.02874206204634387</v>
       </c>
       <c r="C54">
-        <v>0.02309303414641779</v>
+        <v>-0.00363924982469173</v>
       </c>
       <c r="D54">
-        <v>0.003075474665827267</v>
+        <v>0.004176345826392108</v>
       </c>
       <c r="E54">
-        <v>-0.01224540449148057</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003347656087804125</v>
+      </c>
+      <c r="F54">
+        <v>-0.0004991899726276199</v>
+      </c>
+      <c r="G54">
+        <v>-0.03000250967622455</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0008611487017008927</v>
+        <v>0.07378742874857389</v>
       </c>
       <c r="C55">
-        <v>0.0787091014988304</v>
+        <v>-0.07045024444161573</v>
       </c>
       <c r="D55">
-        <v>0.02982752774446142</v>
+        <v>0.004975749506104437</v>
       </c>
       <c r="E55">
-        <v>0.07149498334410032</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02740687380103308</v>
+      </c>
+      <c r="F55">
+        <v>-0.06161825129384482</v>
+      </c>
+      <c r="G55">
+        <v>-0.01234459922024995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0005131410832226865</v>
+        <v>0.1488067603059658</v>
       </c>
       <c r="C56">
-        <v>0.1490571565812505</v>
+        <v>-0.09638046338265045</v>
       </c>
       <c r="D56">
-        <v>0.03544034350486373</v>
+        <v>0.01497886600018721</v>
       </c>
       <c r="E56">
-        <v>0.08925747614085559</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0439869244020623</v>
+      </c>
+      <c r="F56">
+        <v>-0.103019998156104</v>
+      </c>
+      <c r="G56">
+        <v>-0.004145497118812572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02324628226815386</v>
+        <v>0.01264157759382968</v>
       </c>
       <c r="C57">
-        <v>0.03470609647372853</v>
+        <v>-0.01160946345682428</v>
       </c>
       <c r="D57">
-        <v>0.004360142776616331</v>
+        <v>-0.02373252811756622</v>
       </c>
       <c r="E57">
-        <v>0.02481793028554774</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02847961338617138</v>
+      </c>
+      <c r="F57">
+        <v>0.01609950262981101</v>
+      </c>
+      <c r="G57">
+        <v>-0.02235108385196363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.007987318025226323</v>
+        <v>0.07069280572324968</v>
       </c>
       <c r="C58">
-        <v>0.1013611196541396</v>
+        <v>-0.07194078192253912</v>
       </c>
       <c r="D58">
-        <v>-0.1085303731494905</v>
+        <v>-0.02115439491466844</v>
       </c>
       <c r="E58">
-        <v>0.09264052374232944</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9433109496014872</v>
+      </c>
+      <c r="F58">
+        <v>-0.231113128041362</v>
+      </c>
+      <c r="G58">
+        <v>-0.06389469581293651</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02722109394190192</v>
+        <v>0.1465135915135644</v>
       </c>
       <c r="C59">
-        <v>0.1236973931257438</v>
+        <v>0.2178805858669499</v>
       </c>
       <c r="D59">
-        <v>-0.1206094738220954</v>
+        <v>0.01704759741450943</v>
       </c>
       <c r="E59">
-        <v>-0.1886956721644929</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01617082851179034</v>
+      </c>
+      <c r="F59">
+        <v>0.01019441252256995</v>
+      </c>
+      <c r="G59">
+        <v>-0.01713519913884466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03078359860014572</v>
+        <v>0.2961289169058748</v>
       </c>
       <c r="C60">
-        <v>0.1953062667946465</v>
+        <v>-0.07711509030508062</v>
       </c>
       <c r="D60">
-        <v>-0.05001233606648116</v>
+        <v>-0.007306808832156843</v>
       </c>
       <c r="E60">
-        <v>0.02973469852707252</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02582739223350651</v>
+      </c>
+      <c r="F60">
+        <v>0.3807757025102597</v>
+      </c>
+      <c r="G60">
+        <v>0.07614991348805188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001962080085345115</v>
+        <v>0.03368738777387764</v>
       </c>
       <c r="C61">
-        <v>0.02825635453103177</v>
+        <v>-0.06227657580180507</v>
       </c>
       <c r="D61">
-        <v>0.02015427721646673</v>
+        <v>-0.004837434392965728</v>
       </c>
       <c r="E61">
-        <v>0.05085744576951051</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.006194720426873113</v>
+      </c>
+      <c r="F61">
+        <v>0.0262383186754138</v>
+      </c>
+      <c r="G61">
+        <v>-0.01921850325010108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008001322111399296</v>
+        <v>0.01551022811178984</v>
       </c>
       <c r="C63">
-        <v>0.01362753996110447</v>
+        <v>-0.02530995700571148</v>
       </c>
       <c r="D63">
-        <v>0.0114455409279157</v>
+        <v>-0.00757650633474333</v>
       </c>
       <c r="E63">
-        <v>0.0129054369107283</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.01255455473906048</v>
+      </c>
+      <c r="F63">
+        <v>-0.009687156000027156</v>
+      </c>
+      <c r="G63">
+        <v>-0.02880483008433214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.005144355151088268</v>
+        <v>0.04721669812361588</v>
       </c>
       <c r="C64">
-        <v>0.04373986523237603</v>
+        <v>-0.03459502856915584</v>
       </c>
       <c r="D64">
-        <v>0.01499285054281383</v>
+        <v>-0.00449271664804862</v>
       </c>
       <c r="E64">
-        <v>0.03885174958806246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.009390271399238394</v>
+      </c>
+      <c r="F64">
+        <v>0.01472584789951701</v>
+      </c>
+      <c r="G64">
+        <v>-0.01751089572979931</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01807088620200172</v>
+        <v>0.08033679164824133</v>
       </c>
       <c r="C65">
-        <v>0.06341868673121796</v>
+        <v>-0.0657736020617402</v>
       </c>
       <c r="D65">
-        <v>0.0319574423342279</v>
+        <v>-0.01520916469990226</v>
       </c>
       <c r="E65">
-        <v>0.06266662318779058</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.004756109405263301</v>
+      </c>
+      <c r="F65">
+        <v>0.0422227273563466</v>
+      </c>
+      <c r="G65">
+        <v>-0.01070869462908474</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.006544712870492457</v>
+        <v>0.05496101049865867</v>
       </c>
       <c r="C66">
-        <v>0.03575315841403515</v>
+        <v>-0.1141553825965448</v>
       </c>
       <c r="D66">
-        <v>0.02205597335982377</v>
+        <v>-0.01068198877192708</v>
       </c>
       <c r="E66">
-        <v>0.08656741126478715</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.01262105110762299</v>
+      </c>
+      <c r="F66">
+        <v>0.0493148145298859</v>
+      </c>
+      <c r="G66">
+        <v>-0.008453027229667709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001830100415310244</v>
+        <v>0.05944718588941957</v>
       </c>
       <c r="C67">
-        <v>0.04398790153276935</v>
+        <v>-0.02647032537968461</v>
       </c>
       <c r="D67">
-        <v>0.001407737995678806</v>
+        <v>0.007018947783389771</v>
       </c>
       <c r="E67">
-        <v>0.0168031223075317</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004301478755954993</v>
+      </c>
+      <c r="F67">
+        <v>0.0008075035489181209</v>
+      </c>
+      <c r="G67">
+        <v>-0.02851452897824586</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.0424262252978977</v>
+        <v>0.1252894209735979</v>
       </c>
       <c r="C68">
-        <v>0.108743552566199</v>
+        <v>0.2731043642868085</v>
       </c>
       <c r="D68">
-        <v>-0.1151315475752401</v>
+        <v>-0.001441376707542684</v>
       </c>
       <c r="E68">
-        <v>-0.2009461250941542</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01987165705327211</v>
+      </c>
+      <c r="F68">
+        <v>-0.01283035675993139</v>
+      </c>
+      <c r="G68">
+        <v>-0.02071244296691521</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.00303662348235731</v>
+        <v>0.07803260550846387</v>
       </c>
       <c r="C69">
-        <v>0.05874721215091431</v>
+        <v>-0.06095920770015553</v>
       </c>
       <c r="D69">
-        <v>0.01295186671785387</v>
+        <v>0.009546072442506945</v>
       </c>
       <c r="E69">
-        <v>0.03267954038448966</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03044383397829819</v>
+      </c>
+      <c r="F69">
+        <v>-0.03978481952117263</v>
+      </c>
+      <c r="G69">
+        <v>-0.01892888138778609</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.02942693020479895</v>
+        <v>0.1235958709803161</v>
       </c>
       <c r="C71">
-        <v>0.1017517309955213</v>
+        <v>0.2305655806385894</v>
       </c>
       <c r="D71">
-        <v>-0.09341800355636538</v>
+        <v>0.007484784549600805</v>
       </c>
       <c r="E71">
-        <v>-0.190069385633226</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0260557870594918</v>
+      </c>
+      <c r="F71">
+        <v>-0.01748808144146606</v>
+      </c>
+      <c r="G71">
+        <v>-0.03780904194676245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.004814762729990804</v>
+        <v>0.08593889385289055</v>
       </c>
       <c r="C72">
-        <v>0.1198522933711692</v>
+        <v>-0.07635213521664218</v>
       </c>
       <c r="D72">
-        <v>0.02728581820377436</v>
+        <v>0.008860211487193955</v>
       </c>
       <c r="E72">
-        <v>0.1190676969380711</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01081821320917964</v>
+      </c>
+      <c r="F72">
+        <v>0.04040046910131693</v>
+      </c>
+      <c r="G72">
+        <v>0.00383489619535086</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.03768520280741362</v>
+        <v>0.4067488432507362</v>
       </c>
       <c r="C73">
-        <v>0.243551107760958</v>
+        <v>-0.09446868503397647</v>
       </c>
       <c r="D73">
-        <v>-0.07831406028613247</v>
+        <v>-0.01131273764324304</v>
       </c>
       <c r="E73">
-        <v>0.1083757298134423</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06789838318302796</v>
+      </c>
+      <c r="F73">
+        <v>0.5307086403597551</v>
+      </c>
+      <c r="G73">
+        <v>0.1396186029612797</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-6.90350172145219e-05</v>
+        <v>0.1189595127128143</v>
       </c>
       <c r="C74">
-        <v>0.1368758546148441</v>
+        <v>-0.1126989964437003</v>
       </c>
       <c r="D74">
-        <v>0.02811291553122145</v>
+        <v>0.01113708633037669</v>
       </c>
       <c r="E74">
-        <v>0.09494870465109111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03717955007246402</v>
+      </c>
+      <c r="F74">
+        <v>-0.07028630804157578</v>
+      </c>
+      <c r="G74">
+        <v>-0.02163324881990429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.0005830637068743025</v>
+        <v>0.2648780871861047</v>
       </c>
       <c r="C75">
-        <v>0.2790513768237629</v>
+        <v>-0.1398328355117439</v>
       </c>
       <c r="D75">
-        <v>0.04183586584273563</v>
+        <v>0.03262103833909112</v>
       </c>
       <c r="E75">
-        <v>0.1618829689313473</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.0769033729385033</v>
+      </c>
+      <c r="F75">
+        <v>-0.2165782528524168</v>
+      </c>
+      <c r="G75">
+        <v>0.02125336395526463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.006236793354784509</v>
+        <v>0.1407722581156494</v>
       </c>
       <c r="C76">
-        <v>0.2399289395532899</v>
+        <v>-0.1185767667356815</v>
       </c>
       <c r="D76">
-        <v>0.06050343371749819</v>
+        <v>0.02269518792671463</v>
       </c>
       <c r="E76">
-        <v>0.1471471491659771</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07068519794356339</v>
+      </c>
+      <c r="F76">
+        <v>-0.1367317314401051</v>
+      </c>
+      <c r="G76">
+        <v>-0.01069941990311371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01356686335643047</v>
+        <v>0.06247879533291893</v>
       </c>
       <c r="C77">
-        <v>0.03890014732541657</v>
+        <v>-0.05999762206254101</v>
       </c>
       <c r="D77">
-        <v>0.0236363790631497</v>
+        <v>-0.01202307011878006</v>
       </c>
       <c r="E77">
-        <v>0.05478968087580435</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04165060861121102</v>
+      </c>
+      <c r="F77">
+        <v>0.02178855263496287</v>
+      </c>
+      <c r="G77">
+        <v>-0.04426627177211269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006588692397715934</v>
+        <v>0.0401135682816261</v>
       </c>
       <c r="C78">
-        <v>0.02809492283068058</v>
+        <v>-0.0501059412699091</v>
       </c>
       <c r="D78">
-        <v>0.02190019597994071</v>
+        <v>-0.005323212331237732</v>
       </c>
       <c r="E78">
-        <v>0.04116251467470508</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01734109862854168</v>
+      </c>
+      <c r="F78">
+        <v>0.04436251290134734</v>
+      </c>
+      <c r="G78">
+        <v>-0.03110241407510536</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01573721355504257</v>
+        <v>0.06054516779414654</v>
       </c>
       <c r="C80">
-        <v>0.2100319941670152</v>
+        <v>-0.07099571748262803</v>
       </c>
       <c r="D80">
-        <v>0.8553365328229954</v>
+        <v>-0.01356020726698813</v>
       </c>
       <c r="E80">
-        <v>-0.4129739353204649</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.07162853940757977</v>
+      </c>
+      <c r="F80">
+        <v>0.05354907546669942</v>
+      </c>
+      <c r="G80">
+        <v>-0.9161635801446469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0006239578679140029</v>
+        <v>0.14922617470146</v>
       </c>
       <c r="C81">
-        <v>0.1910287492837238</v>
+        <v>-0.09154206923060208</v>
       </c>
       <c r="D81">
-        <v>0.0363831826102765</v>
+        <v>0.01701420595230438</v>
       </c>
       <c r="E81">
-        <v>0.1004517908887202</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04773339500434952</v>
+      </c>
+      <c r="F81">
+        <v>-0.1390606087781705</v>
+      </c>
+      <c r="G81">
+        <v>-0.01481009081801638</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.04817891935866553</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.032590090703293</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002662326918289254</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01763325058741651</v>
+      </c>
+      <c r="F82">
+        <v>-0.000749454612949249</v>
+      </c>
+      <c r="G82">
+        <v>0.006685136930716418</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.005149915839639533</v>
+        <v>0.02905411469886402</v>
       </c>
       <c r="C83">
-        <v>0.03030511149562961</v>
+        <v>-0.01917812998961691</v>
       </c>
       <c r="D83">
-        <v>-0.0007704993345311338</v>
+        <v>-0.005105709312514492</v>
       </c>
       <c r="E83">
-        <v>0.009175283868595617</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02621434240731065</v>
+      </c>
+      <c r="F83">
+        <v>0.02456180482716826</v>
+      </c>
+      <c r="G83">
+        <v>-0.02701758885919411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.008039126367936257</v>
+        <v>0.2406572028322347</v>
       </c>
       <c r="C85">
-        <v>0.2445213486259513</v>
+        <v>-0.1439651125486719</v>
       </c>
       <c r="D85">
-        <v>0.04115374766363632</v>
+        <v>0.02121045640288565</v>
       </c>
       <c r="E85">
-        <v>0.1817303919730414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1201034072607078</v>
+      </c>
+      <c r="F85">
+        <v>-0.20352402769389</v>
+      </c>
+      <c r="G85">
+        <v>0.04444105703498204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009085283385042124</v>
+        <v>0.009507069786603274</v>
       </c>
       <c r="C86">
-        <v>-0.001394785175549623</v>
+        <v>-0.02352095345007671</v>
       </c>
       <c r="D86">
-        <v>0.009013788594583801</v>
+        <v>-0.009656954901664161</v>
       </c>
       <c r="E86">
-        <v>0.0093611950663902</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02290297228508128</v>
+      </c>
+      <c r="F86">
+        <v>0.02257638103904515</v>
+      </c>
+      <c r="G86">
+        <v>-0.05374732206713115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007352828594939544</v>
+        <v>0.01616004302822256</v>
       </c>
       <c r="C87">
-        <v>0.01713999889885525</v>
+        <v>-0.0269039819298268</v>
       </c>
       <c r="D87">
-        <v>0.01206425620673497</v>
+        <v>-0.01137708712909978</v>
       </c>
       <c r="E87">
-        <v>0.02117637990508122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07810038199741001</v>
+      </c>
+      <c r="F87">
+        <v>0.06079961232653112</v>
+      </c>
+      <c r="G87">
+        <v>-0.03883941956469199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.004800957958195773</v>
+        <v>0.09067443617532886</v>
       </c>
       <c r="C88">
-        <v>0.05844093624746366</v>
+        <v>-0.05281186015055183</v>
       </c>
       <c r="D88">
-        <v>-0.005726023312451368</v>
+        <v>-0.02087557608549527</v>
       </c>
       <c r="E88">
-        <v>0.01497398803973803</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.005477014663921518</v>
+      </c>
+      <c r="F88">
+        <v>-0.001179334723284797</v>
+      </c>
+      <c r="G88">
+        <v>-0.02444440717480961</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.05946933254644855</v>
+        <v>0.2113455995515077</v>
       </c>
       <c r="C89">
-        <v>0.2062738193974822</v>
+        <v>0.3746966952638918</v>
       </c>
       <c r="D89">
-        <v>-0.2126348656953568</v>
+        <v>0.009291746904192145</v>
       </c>
       <c r="E89">
-        <v>-0.3331595836256987</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01254646282779684</v>
+      </c>
+      <c r="F89">
+        <v>-0.03198863940089477</v>
+      </c>
+      <c r="G89">
+        <v>-0.02928949189086085</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.0424253960142511</v>
+        <v>0.1764311550597095</v>
       </c>
       <c r="C90">
-        <v>0.1256453865425541</v>
+        <v>0.3399902252060081</v>
       </c>
       <c r="D90">
-        <v>-0.1716772602445757</v>
+        <v>0.01192467868458573</v>
       </c>
       <c r="E90">
-        <v>-0.265036273400904</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.004672331987081981</v>
+      </c>
+      <c r="F90">
+        <v>-0.0454941737175612</v>
+      </c>
+      <c r="G90">
+        <v>-0.004910239915549928</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001036664923596753</v>
+        <v>0.214961502649961</v>
       </c>
       <c r="C91">
-        <v>0.2691863931834392</v>
+        <v>-0.131381337098019</v>
       </c>
       <c r="D91">
-        <v>0.04697255301039283</v>
+        <v>0.02589797132747333</v>
       </c>
       <c r="E91">
-        <v>0.1875083497410838</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08669134666316788</v>
+      </c>
+      <c r="F91">
+        <v>-0.1922705581891793</v>
+      </c>
+      <c r="G91">
+        <v>0.005463413190768404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.008182781834940766</v>
+        <v>0.2037777666764963</v>
       </c>
       <c r="C92">
-        <v>0.2810230144244508</v>
+        <v>0.2754618412888605</v>
       </c>
       <c r="D92">
-        <v>-0.1641078641809526</v>
+        <v>0.05500158208603076</v>
       </c>
       <c r="E92">
-        <v>-0.2457744696165643</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.005649461967796374</v>
+      </c>
+      <c r="F92">
+        <v>-0.1345828711025626</v>
+      </c>
+      <c r="G92">
+        <v>-0.06628370056558064</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.04369359896791525</v>
+        <v>0.2021154349820378</v>
       </c>
       <c r="C93">
-        <v>0.1948074614429863</v>
+        <v>0.3361372505845051</v>
       </c>
       <c r="D93">
-        <v>-0.2168127802277886</v>
+        <v>0.01894475611295482</v>
       </c>
       <c r="E93">
-        <v>-0.3038712768001876</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01020915579709365</v>
+      </c>
+      <c r="F93">
+        <v>-0.01975325096641167</v>
+      </c>
+      <c r="G93">
+        <v>-0.0005907326557183811</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.01979005126237068</v>
+        <v>0.2846836785210821</v>
       </c>
       <c r="C94">
-        <v>0.3070141287360163</v>
+        <v>-0.1497767618287644</v>
       </c>
       <c r="D94">
-        <v>-0.002046176150616614</v>
+        <v>0.01448345681953947</v>
       </c>
       <c r="E94">
-        <v>0.171415903243271</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1012057409358906</v>
+      </c>
+      <c r="F94">
+        <v>-0.3979026658717034</v>
+      </c>
+      <c r="G94">
+        <v>0.1183093726091958</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.008243302682783548</v>
+        <v>0.08488936800766352</v>
       </c>
       <c r="C95">
-        <v>0.08239895174848523</v>
+        <v>-0.07268569874934389</v>
       </c>
       <c r="D95">
-        <v>-0.07057605544613058</v>
+        <v>0.008075033715936231</v>
       </c>
       <c r="E95">
-        <v>0.05348487823549115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08050752795183544</v>
+      </c>
+      <c r="F95">
+        <v>0.1547287762357951</v>
+      </c>
+      <c r="G95">
+        <v>0.07101716830762998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.001995757974208123</v>
+        <v>0.2134270965289743</v>
       </c>
       <c r="C98">
-        <v>0.1998696039234162</v>
+        <v>-0.04258927301540093</v>
       </c>
       <c r="D98">
-        <v>-0.05237385134879405</v>
+        <v>0.01765024251521244</v>
       </c>
       <c r="E98">
-        <v>0.04614147543189576</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06807084666956568</v>
+      </c>
+      <c r="F98">
+        <v>0.2392126754236268</v>
+      </c>
+      <c r="G98">
+        <v>0.04115892723703687</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00948038912385709</v>
+        <v>0.01283605723614865</v>
       </c>
       <c r="C101">
-        <v>0.02305539431695479</v>
+        <v>-0.01960693167101075</v>
       </c>
       <c r="D101">
-        <v>0.004049994471350691</v>
+        <v>-0.008520892065192116</v>
       </c>
       <c r="E101">
-        <v>0.006666076145356684</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03578406982781637</v>
+      </c>
+      <c r="F101">
+        <v>-0.02287147071937972</v>
+      </c>
+      <c r="G101">
+        <v>-0.03956076139614109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01474443637524486</v>
+        <v>0.1276260159226969</v>
       </c>
       <c r="C102">
-        <v>0.1435319343135839</v>
+        <v>-0.07846639848943909</v>
       </c>
       <c r="D102">
-        <v>0.02108592282482233</v>
+        <v>0.001010844767408964</v>
       </c>
       <c r="E102">
-        <v>0.08982829201054984</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04456499157682114</v>
+      </c>
+      <c r="F102">
+        <v>-0.06453757276050737</v>
+      </c>
+      <c r="G102">
+        <v>0.01246194398867698</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002343696579387041</v>
+        <v>0.005577178634283344</v>
       </c>
       <c r="C103">
-        <v>0.02898205196609402</v>
+        <v>-0.005424597116428121</v>
       </c>
       <c r="D103">
-        <v>0.01884108141516207</v>
+        <v>-0.000345958885788005</v>
       </c>
       <c r="E103">
-        <v>0.01615022968815281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001719380510336213</v>
+      </c>
+      <c r="F103">
+        <v>-0.008863599511354844</v>
+      </c>
+      <c r="G103">
+        <v>-0.01445531339146666</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9851119083920619</v>
+        <v>0.04006090762025995</v>
       </c>
       <c r="C104">
-        <v>-0.09368731835780028</v>
+        <v>0.04593833533981548</v>
       </c>
       <c r="D104">
-        <v>0.03670607264297655</v>
+        <v>-0.9859427087543994</v>
       </c>
       <c r="E104">
-        <v>0.04582335746600601</v>
+        <v>0.04535303927548416</v>
+      </c>
+      <c r="F104">
+        <v>-0.03876091180859022</v>
+      </c>
+      <c r="G104">
+        <v>0.001821549729890962</v>
       </c>
     </row>
   </sheetData>
